--- a/app/data/products_without_amazon_with_citations.xlsx
+++ b/app/data/products_without_amazon_with_citations.xlsx
@@ -5621,7 +5621,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5645,13 +5645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -5668,8 +5661,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5683,45 +5743,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5735,15 +5757,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -5751,40 +5774,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5803,7 +5796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5815,7 +5814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5827,25 +5850,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5857,13 +5916,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5875,109 +5964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6045,21 +6038,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6067,24 +6045,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6103,148 +6063,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6607,8 +6600,8 @@
   <sheetPr/>
   <dimension ref="A1:C1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6772,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="67" customHeight="1" spans="1:3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
